--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Product Pricers/FxTransactionPricer.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Product Pricers/FxTransactionPricer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Product Pricers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Product Pricers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4FF08C-DE92-4A77-AF7F-664F965BC6ED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092ABDA0-9CFE-42D3-B1B1-C2578D91E50A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="375" windowWidth="28515" windowHeight="12300" tabRatio="430" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="0" windowWidth="26370" windowHeight="14820" tabRatio="430" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GetInfo &amp; GetInstrumentInfo" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,15 @@
   <definedNames>
     <definedName name="CurveList">'GetInfo &amp; GetInstrumentInfo'!$A$8:$A$122</definedName>
   </definedNames>
-  <calcPr calcId="179017" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1567,7 +1575,7 @@
     <row r="2" spans="1:7">
       <c r="A2" t="str">
         <f>_xll.HLV5r3.Financial.Cache.GetCurveEngineVersionInfo()</f>
-        <v>Version: FpML.V5r3 v1.0 Built on : 27/04/2018, 8:03 AM</v>
+        <v>Version: FpML.V5r3 v1.0 Built on : 28/06/2019, 9:25 AM</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1610,7 +1618,7 @@
     <row r="8" spans="1:7">
       <c r="A8" s="6" t="str">
         <f t="array" ref="A8:A129">_xll.HLV5r3.Financial.Cache.ListUpTo100PricingStructures( C6:D7)</f>
-        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-ISDA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-3M</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1629,27 +1637,27 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-3M</v>
+        <v>Market.QR_LIVE.DiscountCurve.EUR-LIBOR-SENIOR</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="6" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.EUR-LIBOR-SENIOR</v>
+        <v>Market.QR_LIVE.DiscountCurve.GBP-LIBOR-SENIOR</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="6" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.GBP-LIBOR-SENIOR</v>
+        <v>Market.QR_LIVE.DiscountCurve.JPY-LIBOR-SENIOR</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="6" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.JPY-LIBOR-SENIOR</v>
+        <v>Market.QR_LIVE.DiscountCurve.NZD-LIBOR-SENIOR</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="6" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.NZD-LIBOR-SENIOR</v>
+        <v>Market.QR_LIVE.DiscountCurve.USD-LIBOR-SENIOR</v>
       </c>
       <c r="C15" t="str">
         <f t="array" ref="C15:D56">_xll.HLV5r3.Financial.Cache.GetQuotedAssetSet( C9)</f>
@@ -1660,10 +1668,10 @@
       </c>
       <c r="F15" t="str">
         <f t="array" ref="F15:G56">_xll.HLV5r3.Financial.Cache.GetQuotedAssetSet( A11)</f>
-        <v>USD-Deposit-1D</v>
+        <v>EUR-Deposit-1D</v>
       </c>
       <c r="G15">
-        <v>2.5000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1677,10 +1685,10 @@
         <v>1.06E-3</v>
       </c>
       <c r="F16" t="str">
-        <v>USD-Deposit-1W</v>
+        <v>EUR-Deposit-2D</v>
       </c>
       <c r="G16">
-        <v>5.3499999999999997E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1694,10 +1702,10 @@
         <v>1.4563E-3</v>
       </c>
       <c r="F17" t="str">
-        <v>USD-Deposit-1M</v>
+        <v>EUR-Deposit-1W</v>
       </c>
       <c r="G17">
-        <v>2.0500000000000002E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1711,10 +1719,10 @@
         <v>1.4563E-3</v>
       </c>
       <c r="F18" t="str">
-        <v>USD-Deposit-2M</v>
+        <v>EUR-Deposit-1M</v>
       </c>
       <c r="G18">
-        <v>2.3999999999999998E-3</v>
+        <v>5.4000000000000003E-3</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1728,10 +1736,10 @@
         <v>1.8438E-3</v>
       </c>
       <c r="F19" t="str">
-        <v>USD-Deposit-3M</v>
+        <v>EUR-Deposit-2M</v>
       </c>
       <c r="G19">
-        <v>6.7499999999999999E-3</v>
+        <v>6.1999999999999998E-3</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1745,10 +1753,10 @@
         <v>2.3188000000000002E-3</v>
       </c>
       <c r="F20" t="str">
-        <v>USD-IRSwap-3Y</v>
+        <v>EUR-Deposit-3M</v>
       </c>
       <c r="G20">
-        <v>1.0205000000000001E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1762,10 +1770,10 @@
         <v>4.3755E-3</v>
       </c>
       <c r="F21" t="str">
-        <v>USD-IRSwap-4Y</v>
+        <v>EUR-IRSwap-3Y</v>
       </c>
       <c r="G21">
-        <v>1.3585E-2</v>
+        <v>1.435E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1779,10 +1787,10 @@
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="F22" t="str">
-        <v>USD-IRSwap-5Y</v>
+        <v>EUR-IRSwap-4Y</v>
       </c>
       <c r="G22">
-        <v>1.6865000000000002E-2</v>
+        <v>1.6109999999999999E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1796,10 +1804,10 @@
         <v>5.4749999999999998E-3</v>
       </c>
       <c r="F23" t="str">
-        <v>USD-IRSwap-7Y</v>
+        <v>EUR-IRSwap-5Y</v>
       </c>
       <c r="G23">
-        <v>2.189E-2</v>
+        <v>1.789E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1813,10 +1821,10 @@
         <v>7.4844999999999998E-3</v>
       </c>
       <c r="F24" t="str">
-        <v>USD-IRSwap-10Y</v>
+        <v>EUR-IRSwap-7Y</v>
       </c>
       <c r="G24">
-        <v>2.6485000000000002E-2</v>
+        <v>2.094E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1830,10 +1838,10 @@
         <v>1.11155E-2</v>
       </c>
       <c r="F25" t="str">
-        <v>USD-IRSwap-12Y</v>
+        <v>EUR-IRSwap-10Y</v>
       </c>
       <c r="G25">
-        <v>2.8465000000000001E-2</v>
+        <v>2.4140000000000002E-2</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1847,10 +1855,10 @@
         <v>1.3103E-2</v>
       </c>
       <c r="F26" t="str">
-        <v>USD-IRSwap-15Y</v>
+        <v>EUR-IRSwap-12Y</v>
       </c>
       <c r="G26">
-        <v>3.048E-2</v>
+        <v>2.5590000000000002E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1864,10 +1872,10 @@
         <v>1.5316E-2</v>
       </c>
       <c r="F27" t="str">
-        <v>USD-IRSwap-20Y</v>
+        <v>EUR-IRSwap-15Y</v>
       </c>
       <c r="G27">
-        <v>3.211E-2</v>
+        <v>2.691E-2</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1881,10 +1889,10 @@
         <v>1.7659000000000001E-2</v>
       </c>
       <c r="F28" t="str">
-        <v>USD-IRSwap-25Y</v>
+        <v>EUR-IRSwap-20Y</v>
       </c>
       <c r="G28">
-        <v>3.2910000000000002E-2</v>
+        <v>2.784E-2</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1898,10 +1906,10 @@
         <v>1.8561999999999999E-2</v>
       </c>
       <c r="F29" t="str">
-        <v>USD-IRSwap-30Y</v>
+        <v>EUR-IRSwap-25Y</v>
       </c>
       <c r="G29">
-        <v>3.3360000000000001E-2</v>
+        <v>2.7609999999999999E-2</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1915,10 +1923,10 @@
         <v>1.8937499999999999E-2</v>
       </c>
       <c r="F30" t="str">
-        <v>USD-IRFuture-ED-1</v>
+        <v>EUR-IRSwap-30Y</v>
       </c>
       <c r="G30">
-        <v>3.1250000000000002E-3</v>
+        <v>2.6669999999999999E-2</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1932,10 +1940,10 @@
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="F31" t="str">
-        <v>USD-IRFuture-ED-2</v>
+        <v>EUR-IRFuture-ER-1</v>
       </c>
       <c r="G31">
-        <v>4.15E-3</v>
+        <v>8.8500000000000002E-3</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1949,10 +1957,10 @@
         <v>3.15E-3</v>
       </c>
       <c r="F32" t="str">
-        <v>USD-IRFuture-ED-3</v>
+        <v>EUR-IRFuture-ER-2</v>
       </c>
       <c r="G32">
-        <v>4.7000000000000002E-3</v>
+        <v>9.3500000000000007E-3</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1966,10 +1974,10 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F33" t="str">
-        <v>USD-IRFuture-ED-4</v>
+        <v>EUR-IRFuture-ER-3</v>
       </c>
       <c r="G33">
-        <v>5.6499999999999996E-3</v>
+        <v>9.9000000000000008E-3</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1983,10 +1991,10 @@
         <v>2.725E-3</v>
       </c>
       <c r="F34" t="str">
-        <v>USD-IRFuture-ED-5</v>
+        <v>EUR-IRFuture-ER-4</v>
       </c>
       <c r="G34">
-        <v>7.0000000000000001E-3</v>
+        <v>1.035E-2</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2000,10 +2008,10 @@
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="F35" t="str">
-        <v>USD-IRFuture-ED-6</v>
+        <v>EUR-IRFuture-ER-5</v>
       </c>
       <c r="G35">
-        <v>8.7500000000000008E-3</v>
+        <v>1.09E-2</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2017,10 +2025,10 @@
         <v>2.65E-3</v>
       </c>
       <c r="F36" t="str">
-        <v>USD-IRFuture-ED-7</v>
+        <v>EUR-IRFuture-ER-6</v>
       </c>
       <c r="G36">
-        <v>1.06E-2</v>
+        <v>1.1849999999999999E-2</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2034,15 +2042,15 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F37" t="str">
-        <v>USD-IRFuture-ED-8</v>
+        <v>EUR-IRFuture-ER-7</v>
       </c>
       <c r="G37">
-        <v>1.26E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-ISDA-6M</v>
       </c>
       <c r="C38" t="str">
         <v>JPY-IRFuture-EY-8</v>
@@ -2050,16 +2058,16 @@
       <c r="D38">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F38" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G38" t="e">
-        <v>#N/A</v>
+      <c r="F38" t="str">
+        <v>EUR-IRFuture-ER-8</v>
+      </c>
+      <c r="G38">
+        <v>1.3350000000000001E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-3M</v>
+        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-1M</v>
       </c>
       <c r="C39" t="e">
         <v>#N/A</v>
@@ -2076,7 +2084,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-3M</v>
       </c>
       <c r="C40" t="e">
         <v>#N/A</v>
@@ -2093,7 +2101,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-6M</v>
       </c>
       <c r="C41" t="e">
         <v>#N/A</v>
@@ -2110,7 +2118,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="6" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.CHF-LIBOR-SENIOR</v>
+        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-1M</v>
       </c>
       <c r="C42" t="e">
         <v>#N/A</v>
@@ -2127,7 +2135,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-6M</v>
+        <v>Market.QR_LIVE.DiscountCurve.CHF-LIBOR-SENIOR</v>
       </c>
       <c r="C43" t="e">
         <v>#N/A</v>
@@ -2144,7 +2152,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-6M</v>
       </c>
       <c r="C44" t="e">
         <v>#N/A</v>
@@ -2161,7 +2169,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-6M</v>
+        <v>Market.QR_LIVE.FxCurve.CHF-USD</v>
       </c>
       <c r="C45" t="e">
         <v>#N/A</v>
@@ -2178,7 +2186,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-6M</v>
+        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-6M</v>
       </c>
       <c r="C46" t="e">
         <v>#N/A</v>
@@ -2195,7 +2203,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="6" t="str">
-        <v>Market.QR_LIVE.FxCurve.CHF-USD</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-1M</v>
       </c>
       <c r="C47" t="e">
         <v>#N/A</v>
@@ -2212,7 +2220,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-3M</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-6M</v>
       </c>
       <c r="C48" t="e">
         <v>#N/A</v>
@@ -2229,7 +2237,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-1M</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-3M</v>
       </c>
       <c r="C49" t="e">
         <v>#N/A</v>
@@ -2246,7 +2254,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-6M</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-1M</v>
       </c>
       <c r="C50" t="e">
         <v>#N/A</v>
@@ -2263,7 +2271,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-5Y</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-6M</v>
       </c>
       <c r="C51" t="e">
         <v>#N/A</v>
@@ -2280,7 +2288,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-10Y</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-5Y</v>
       </c>
       <c r="C52" t="e">
         <v>#N/A</v>
@@ -2297,7 +2305,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-10Y</v>
       </c>
       <c r="C53" t="e">
         <v>#N/A</v>
@@ -2314,7 +2322,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-1M</v>
       </c>
       <c r="C54" t="e">
         <v>#N/A</v>
@@ -2331,7 +2339,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-3M</v>
+        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-6M</v>
       </c>
       <c r="C55" t="e">
         <v>#N/A</v>
@@ -2348,7 +2356,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-6M</v>
+        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-3M</v>
       </c>
       <c r="C56" t="e">
         <v>#N/A</v>
@@ -2365,252 +2373,252 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-3M</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-6M</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-1M</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-3M</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.EUR-IRSwap-5Y</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-1M</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1D</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.EUR-IRSwap-5Y</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1W</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1M</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-2W</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-2M</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-3M</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-2M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-1</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-3M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-2</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-1</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-3</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-2</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-4</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-3</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-5</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-4</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-6</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-5</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-7</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-6</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-8</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-7</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-3Y</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-8</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-4Y</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-3Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-5Y</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-4Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-6Y</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-5Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-7Y</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-6Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-8Y</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-7Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-9Y</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-8Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-10Y</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-9Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-15Y</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-10Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-20Y</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-15Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1D</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-20Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1W</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="6" t="str">
-        <v>Market.QR_LIVE.ClearedRateCurve.USD-LIBOR-ISDA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-2W</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="6" t="str">
-        <v>Market.QR_LIVE.RateBasisCurve.AUD-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.ClearedRateCurve.USD-LIBOR-ISDA-6M</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M</v>
+        <v>Market.QR_LIVE.RateBasisCurve.AUD-LIBOR-BBA-1M</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-6M</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-3M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-1M</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-3M</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.USD-Federal Funds-H15-OIS-COMPOUND-1D</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-1M</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="6" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.USD-OIS-SENIOR</v>
+        <v>Market.QR_LIVE.RateCurve.USD-Federal Funds-H15-OIS-COMPOUND-1D</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-6M</v>
+        <v>Market.QR_LIVE.DiscountCurve.USD-OIS-SENIOR</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="6" t="str">
-        <v>Market.QR_LIVE.ExchangeTradedCurve.AUD-ASX-IR</v>
+        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-ISDA-6M</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="6" t="str">
-        <v>Market.QR_LIVE.ExchangeTradedCurve.ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-6M</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-AONIA-OIS-COMPOUND-1D</v>
+        <v>Market.QR_LIVE.ExchangeTradedCurve.ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-Xibor-3M</v>
+        <v>Market.QR_LIVE.ExchangeTradedCurve.AUD-ASX-IR</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.Instrument/String=AUD-BBR-BBSW-1M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-AONIA-OIS-COMPOUND-1D</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.Instrument/String=AUD-IRSwap-1Y</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-Xibor-3M</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.Instrument/String=AUD-BBR-BBSW-1M</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.Instrument/String=AUD-IRSwap-1Y</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="6" t="str">
-        <v>Market.QR_LIVE.RateATMVolatilityMatrix.AUD-IRSwap-SydneySwapDesk</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-20Y</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-15Y</v>
+        <v>Market.QR_LIVE.RateATMVolatilityMatrix.AUD-IRSwap-SydneySwapDesk</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-9Y</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-20Y</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-8Y</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-15Y</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -2744,7 +2752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
@@ -2842,11 +2850,11 @@
       </c>
       <c r="F3" s="12">
         <f ca="1">TODAY()</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G3" s="12">
         <f ca="1">F3+90</f>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>19</v>
@@ -2907,7 +2915,7 @@
       <c r="N4" s="14"/>
       <c r="O4" s="16">
         <f ca="1"/>
-        <v>178878.80177205443</v>
+        <v>187161.39994898834</v>
       </c>
       <c r="P4" s="16">
         <f ca="1"/>
@@ -2915,7 +2923,7 @@
       </c>
       <c r="Q4" s="16">
         <f ca="1"/>
-        <v>4.3829247111894336</v>
+        <v>4.7902676111670282</v>
       </c>
       <c r="R4" s="10" t="s">
         <v>21</v>
@@ -2943,11 +2951,11 @@
       </c>
       <c r="F5" s="12">
         <f ca="1">F3</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G5" s="12">
         <f ca="1">G3+5</f>
-        <v>43312</v>
+        <v>43739</v>
       </c>
       <c r="H5" s="11" t="str">
         <f>H3</f>
@@ -2993,7 +3001,7 @@
       </c>
       <c r="S5" s="17">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
     </row>
     <row r="6" spans="2:22">
@@ -3012,7 +3020,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="16">
         <f ca="1"/>
-        <v>183784.05826478318</v>
+        <v>192557.67140305342</v>
       </c>
       <c r="P6" s="16">
         <f ca="1"/>
@@ -3020,7 +3028,7 @@
       </c>
       <c r="Q6" s="16">
         <f ca="1"/>
-        <v>4.7532924823429958</v>
+        <v>5.1967342390849547</v>
       </c>
       <c r="R6" t="str">
         <f ca="1"/>
@@ -3049,11 +3057,11 @@
       </c>
       <c r="F7" s="12">
         <f ca="1">F5</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G7" s="12">
         <f ca="1">G5+5</f>
-        <v>43317</v>
+        <v>43744</v>
       </c>
       <c r="H7" s="11" t="str">
         <f>H5</f>
@@ -3118,7 +3126,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="16">
         <f ca="1"/>
-        <v>188685.5952795012</v>
+        <v>198240.92738472804</v>
       </c>
       <c r="P8" s="16">
         <f ca="1"/>
@@ -3126,7 +3134,7 @@
       </c>
       <c r="Q8" s="16">
         <f ca="1"/>
-        <v>5.136906149603961</v>
+        <v>5.6329852595906544</v>
       </c>
       <c r="R8" t="str">
         <f ca="1"/>
@@ -3155,11 +3163,11 @@
       </c>
       <c r="F9" s="12">
         <f ca="1">F7</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G9" s="12">
         <f ca="1">G7+5</f>
-        <v>43322</v>
+        <v>43749</v>
       </c>
       <c r="H9" s="11" t="str">
         <f>H7</f>
@@ -3224,7 +3232,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="16">
         <f ca="1"/>
-        <v>193583.61100512705</v>
+        <v>203957.50698040347</v>
       </c>
       <c r="P10" s="16">
         <f ca="1"/>
@@ -3232,7 +3240,7 @@
       </c>
       <c r="Q10" s="16">
         <f ca="1"/>
-        <v>5.5337610408481774</v>
+        <v>6.0865930782644408</v>
       </c>
       <c r="R10" t="str">
         <f ca="1"/>
@@ -3261,11 +3269,11 @@
       </c>
       <c r="F11" s="12">
         <f ca="1">F9</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G11" s="12">
         <f ca="1">G9+5</f>
-        <v>43327</v>
+        <v>43754</v>
       </c>
       <c r="H11" s="11" t="str">
         <f>H9</f>
@@ -3330,7 +3338,7 @@
       <c r="N12" s="14"/>
       <c r="O12" s="16">
         <f ca="1"/>
-        <v>198478.18306287652</v>
+        <v>209505.43229278759</v>
       </c>
       <c r="P12" s="16">
         <f ca="1"/>
@@ -3338,7 +3346,7 @@
       </c>
       <c r="Q12" s="16">
         <f ca="1"/>
-        <v>5.9438469740615076</v>
+        <v>6.5465690368644491</v>
       </c>
       <c r="R12" t="str">
         <f ca="1"/>
@@ -3367,11 +3375,11 @@
       </c>
       <c r="F13" s="12">
         <f ca="1">F11</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G13" s="12">
         <f ca="1">G11+5</f>
-        <v>43332</v>
+        <v>43759</v>
       </c>
       <c r="H13" s="11" t="str">
         <f>H11</f>
@@ -3436,7 +3444,7 @@
       <c r="N14" s="14"/>
       <c r="O14" s="16">
         <f ca="1"/>
-        <v>203369.31282188909</v>
+        <v>214924.70211569461</v>
       </c>
       <c r="P14" s="16">
         <f ca="1"/>
@@ -3444,7 +3452,7 @@
       </c>
       <c r="Q14" s="16">
         <f ca="1"/>
-        <v>6.3671499189080381</v>
+        <v>7.0144737656383915</v>
       </c>
       <c r="R14" t="str">
         <f ca="1"/>
@@ -3473,11 +3481,11 @@
       </c>
       <c r="F15" s="12">
         <f ca="1">F13</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G15" s="12">
         <f ca="1">G13+5</f>
-        <v>43337</v>
+        <v>43764</v>
       </c>
       <c r="H15" s="11" t="str">
         <f>H13</f>
@@ -3531,7 +3539,7 @@
       </c>
       <c r="V15" s="13">
         <f ca="1"/>
-        <v>178878.80177205443</v>
+        <v>187161.39994898834</v>
       </c>
     </row>
     <row r="16" spans="2:22">
@@ -3550,7 +3558,7 @@
       <c r="N16" s="14"/>
       <c r="O16" s="16">
         <f ca="1"/>
-        <v>208257.0016510741</v>
+        <v>220342.7850892042</v>
       </c>
       <c r="P16" s="16">
         <f ca="1"/>
@@ -3558,7 +3566,7 @@
       </c>
       <c r="Q16" s="16">
         <f ca="1"/>
-        <v>6.8036558525140798</v>
+        <v>7.4971492490366369</v>
       </c>
       <c r="R16" t="str">
         <f ca="1"/>
@@ -3595,11 +3603,11 @@
       </c>
       <c r="F17" s="12">
         <f ca="1">F15</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G17" s="12">
         <f ca="1">G15+5</f>
-        <v>43342</v>
+        <v>43769</v>
       </c>
       <c r="H17" s="11" t="str">
         <f>H15</f>
@@ -3653,7 +3661,7 @@
       </c>
       <c r="V17">
         <f ca="1"/>
-        <v>4.3829247111894336</v>
+        <v>4.7902676111670282</v>
       </c>
     </row>
     <row r="18" spans="2:22">
@@ -3672,7 +3680,7 @@
       <c r="N18" s="14"/>
       <c r="O18" s="16">
         <f ca="1"/>
-        <v>213141.25091910496</v>
+        <v>225759.67195622454</v>
       </c>
       <c r="P18" s="16">
         <f ca="1"/>
@@ -3680,7 +3688,7 @@
       </c>
       <c r="Q18" s="16">
         <f ca="1"/>
-        <v>7.2533507594662217</v>
+        <v>7.9945900653232531</v>
       </c>
       <c r="R18" t="e">
         <f ca="1"/>
@@ -3696,7 +3704,7 @@
       </c>
       <c r="V18">
         <f ca="1"/>
-        <v>-1391279.5693382011</v>
+        <v>-1382945.379740939</v>
       </c>
     </row>
     <row r="19" spans="2:22">
@@ -3717,11 +3725,11 @@
       </c>
       <c r="F19" s="12">
         <f ca="1">F17</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G19" s="12">
         <f ca="1">G17+5</f>
-        <v>43347</v>
+        <v>43774</v>
       </c>
       <c r="H19" s="11" t="str">
         <f>H17</f>
@@ -3778,7 +3786,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="16">
         <f ca="1"/>
-        <v>218022.06199443038</v>
+        <v>231175.3534629996</v>
       </c>
       <c r="P20" s="16">
         <f ca="1"/>
@@ -3786,7 +3794,7 @@
       </c>
       <c r="Q20" s="16">
         <f ca="1"/>
-        <v>7.7162206318103186</v>
+        <v>8.5067907423334166</v>
       </c>
       <c r="U20" t="s">
         <v>30</v>
@@ -3813,11 +3821,11 @@
       </c>
       <c r="F21" s="12">
         <f ca="1">F19</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G21" s="12">
         <f ca="1">G19+5</f>
-        <v>43352</v>
+        <v>43779</v>
       </c>
       <c r="H21" s="11" t="str">
         <f>H19</f>
@@ -3874,7 +3882,7 @@
       <c r="N22" s="14"/>
       <c r="O22" s="16">
         <f ca="1"/>
-        <v>222899.43624526291</v>
+        <v>236589.82035913109</v>
       </c>
       <c r="P22" s="16">
         <f ca="1"/>
@@ -3882,7 +3890,7 @@
       </c>
       <c r="Q22" s="16">
         <f ca="1"/>
-        <v>8.1922514690493742</v>
+        <v>9.0337457574983944</v>
       </c>
       <c r="V22" s="13"/>
     </row>
@@ -3904,11 +3912,11 @@
       </c>
       <c r="F23" s="12">
         <f ca="1">F21</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G23" s="12">
         <f ca="1">G21+5</f>
-        <v>43357</v>
+        <v>43784</v>
       </c>
       <c r="H23" s="12" t="str">
         <f>H21</f>
@@ -3965,7 +3973,7 @@
       <c r="N24" s="14"/>
       <c r="O24" s="16">
         <f ca="1"/>
-        <v>227773.37503958715</v>
+        <v>242003.06339761359</v>
       </c>
       <c r="P24" s="16">
         <f ca="1"/>
@@ -3973,7 +3981,7 @@
       </c>
       <c r="Q24" s="16">
         <f ca="1"/>
-        <v>8.6814292781423656</v>
+        <v>9.5754495378713624</v>
       </c>
     </row>
     <row r="25" spans="2:22">
@@ -3994,11 +4002,11 @@
       </c>
       <c r="F25" s="12">
         <f ca="1">F23</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G25" s="12">
         <f ca="1">G23+5</f>
-        <v>43362</v>
+        <v>43789</v>
       </c>
       <c r="H25" s="12" t="str">
         <f>H23</f>
@@ -4055,7 +4063,7 @@
       <c r="N26" s="14"/>
       <c r="O26" s="16">
         <f ca="1"/>
-        <v>232643.87974515226</v>
+        <v>247415.07333485581</v>
       </c>
       <c r="P26" s="16">
         <f ca="1"/>
@@ -4063,7 +4071,7 @@
       </c>
       <c r="Q26" s="16">
         <f ca="1"/>
-        <v>9.1837400735022303</v>
+        <v>10.131896460152708</v>
       </c>
     </row>
     <row r="27" spans="2:22">
@@ -4469,7 +4477,7 @@
         <v>NPV</v>
       </c>
       <c r="V1" s="16">
-        <v>2.1076543812119696E+17</v>
+        <v>19164721.479945276</v>
       </c>
     </row>
     <row r="2" spans="2:22">
@@ -4534,7 +4542,7 @@
         <v>ExpectedValue</v>
       </c>
       <c r="V2" s="16">
-        <v>2.14682625988E+17</v>
+        <v>18000000</v>
       </c>
     </row>
     <row r="3" spans="2:22">
@@ -4603,7 +4611,7 @@
         <v>Delta1</v>
       </c>
       <c r="V3" s="16">
-        <v>7699531304623.7588</v>
+        <v>737.29186940439706</v>
       </c>
     </row>
     <row r="4" spans="2:22">
@@ -4623,13 +4631,13 @@
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="16">
-        <v>2.1076543812119696E+17</v>
+        <v>19164721.479945276</v>
       </c>
       <c r="R4" s="16">
-        <v>2.14682625988E+17</v>
+        <v>18000000</v>
       </c>
       <c r="S4" s="16">
-        <v>7699531304623.7588</v>
+        <v>737.29186940439706</v>
       </c>
       <c r="T4" s="10" t="s">
         <v>21</v>
@@ -4638,7 +4646,7 @@
         <v>LocalCurrencyDelta1.AUD</v>
       </c>
       <c r="V4" s="16">
-        <v>-3586.4715503368748</v>
+        <v>-3586.4967447870299</v>
       </c>
     </row>
     <row r="5" spans="2:22">
@@ -4707,7 +4715,7 @@
         <v>LocalCurrencyDelta1.USD</v>
       </c>
       <c r="V5" s="16">
-        <v>3204.1156283053797</v>
+        <v>3247.8395907553181</v>
       </c>
     </row>
     <row r="6" spans="2:22">
@@ -4727,13 +4735,13 @@
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="16">
-        <v>2.1062088004694573E+17</v>
+        <v>17209624.694179907</v>
       </c>
       <c r="R6" s="16">
-        <v>2.14682625986E+17</v>
+        <v>16000000</v>
       </c>
       <c r="S6" s="16">
-        <v>7979201716300.1484</v>
+        <v>689.64198039695452</v>
       </c>
       <c r="T6" s="10" t="s">
         <v>57</v>
@@ -4742,7 +4750,7 @@
         <v>LocalCurrencyBucketedDeltaVector.AUD</v>
       </c>
       <c r="V6" s="16">
-        <v>-3593.9627806991157</v>
+        <v>-3593.986324741772</v>
       </c>
     </row>
     <row r="7" spans="2:22">
@@ -4811,7 +4819,7 @@
         <v>LocalCurrencyBucketedDeltaVector.AUD.0</v>
       </c>
       <c r="V7" s="16">
-        <v>-2424.189103468444</v>
+        <v>-2424.2061330504935</v>
       </c>
     </row>
     <row r="8" spans="2:22">
@@ -4831,19 +4839,19 @@
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="16">
-        <v>2.1047635990846874E+17</v>
+        <v>28236650.86366066</v>
       </c>
       <c r="R8" s="16">
-        <v>2.14682625997E+17</v>
+        <v>27000000</v>
       </c>
       <c r="S8" s="16">
-        <v>8258480973944.3076</v>
+        <v>1151.9165091481045</v>
       </c>
       <c r="U8" s="11" t="str">
         <v>LocalCurrencyBucketedDeltaVector.AUD.1</v>
       </c>
       <c r="V8" s="16">
-        <v>-1169.7736772306714</v>
+        <v>-1169.780191691279</v>
       </c>
     </row>
     <row r="9" spans="2:22">
@@ -4872,7 +4880,7 @@
         <v>LocalCurrencyBucketedDeltaVector.USD</v>
       </c>
       <c r="V9" s="16">
-        <v>3207.5320938583855</v>
+        <v>3248.3123616887046</v>
       </c>
     </row>
     <row r="10" spans="2:22">
@@ -4898,7 +4906,7 @@
         <v>LocalCurrencyBucketedDeltaVector.USD.0</v>
       </c>
       <c r="V10" s="16">
-        <v>2165.7448228360445</v>
+        <v>2195.2989826401695</v>
       </c>
     </row>
     <row r="11" spans="2:22">
@@ -4924,7 +4932,7 @@
         <v>LocalCurrencyBucketedDeltaVector.USD.1</v>
       </c>
       <c r="V11" s="16">
-        <v>1041.7872710223407</v>
+        <v>1053.0133790485354</v>
       </c>
     </row>
     <row r="12" spans="2:22">
@@ -4950,7 +4958,7 @@
         <v>LocalCurrencyDelta1PDH.AUD</v>
       </c>
       <c r="V12" s="16">
-        <v>-3600.3879772599998</v>
+        <v>-3598.7466665299999</v>
       </c>
     </row>
     <row r="13" spans="2:22">
@@ -4976,7 +4984,7 @@
         <v>LocalCurrencyDelta1PDH.AUD-XccyDepo-1D</v>
       </c>
       <c r="V13" s="16">
-        <v>-30.033371859999999</v>
+        <v>-29.92469582</v>
       </c>
     </row>
     <row r="14" spans="2:22">
@@ -5002,7 +5010,7 @@
         <v>LocalCurrencyDelta1PDH.AUD-XccyDepo-TN</v>
       </c>
       <c r="V14" s="16">
-        <v>-90.074936629999996</v>
+        <v>-29.92469582</v>
       </c>
     </row>
     <row r="15" spans="2:22">
@@ -5080,7 +5088,7 @@
         <v>LocalCurrencyDelta1PDH.AUD-XccyDepo-1M</v>
       </c>
       <c r="V17" s="16">
-        <v>1.2296107999999999</v>
+        <v>1.1058067199999999</v>
       </c>
     </row>
     <row r="18" spans="2:22">
@@ -5106,7 +5114,7 @@
         <v>LocalCurrencyDelta1PDH.AUD-XccyDepo-2M</v>
       </c>
       <c r="V18" s="16">
-        <v>1.89930606</v>
+        <v>2.0884516099999999</v>
       </c>
     </row>
     <row r="19" spans="2:22">
@@ -5132,7 +5140,7 @@
         <v>LocalCurrencyDelta1PDH.AUD-XccyDepo-3M</v>
       </c>
       <c r="V19" s="16">
-        <v>-1933.6146082700002</v>
+        <v>-1997.4643898900001</v>
       </c>
     </row>
     <row r="20" spans="2:22">
@@ -5158,7 +5166,7 @@
         <v>LocalCurrencyDelta1PDH.AUD-XccySwap-6M</v>
       </c>
       <c r="V20" s="16">
-        <v>-1549.7939773600001</v>
+        <v>-1544.6271433300001</v>
       </c>
     </row>
     <row r="21" spans="2:22">
@@ -5600,7 +5608,7 @@
         <v>LocalCurrencyDelta1PDH.USD</v>
       </c>
       <c r="V37" s="16">
-        <v>3250.5519422816001</v>
+        <v>3292.6410650056</v>
       </c>
     </row>
     <row r="38" spans="2:22">
@@ -5626,7 +5634,7 @@
         <v>LocalCurrencyDelta1PDH.USD-Deposit-1D</v>
       </c>
       <c r="V38" s="16">
-        <v>51.267783776000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:22">
@@ -5649,10 +5657,10 @@
       <c r="R39" s="12"/>
       <c r="S39" s="12"/>
       <c r="U39" s="11" t="str">
-        <v>LocalCurrencyDelta1PDH.USD-Deposit-1M</v>
+        <v>LocalCurrencyDelta1PDH.USD-Deposit-2D</v>
       </c>
       <c r="V39" s="16">
-        <v>215.61480914160001</v>
+        <v>52.846293667200001</v>
       </c>
     </row>
     <row r="40" spans="2:22">
@@ -5675,10 +5683,10 @@
       <c r="R40" s="12"/>
       <c r="S40" s="12"/>
       <c r="U40" s="11" t="str">
-        <v>LocalCurrencyDelta1PDH.USD-Deposit-2M</v>
+        <v>LocalCurrencyDelta1PDH.USD-Deposit-1W</v>
       </c>
       <c r="V40" s="16">
-        <v>690.84351688000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:22">
@@ -5701,10 +5709,10 @@
       <c r="R41" s="12"/>
       <c r="S41" s="12"/>
       <c r="U41" s="11" t="str">
-        <v>LocalCurrencyDelta1PDH.USD-Deposit-3M</v>
+        <v>LocalCurrencyDelta1PDH.USD-Deposit-2W</v>
       </c>
       <c r="V41" s="16">
-        <v>751.28841870719998</v>
+        <v>369.8505685952</v>
       </c>
     </row>
     <row r="42" spans="2:22">
@@ -5727,10 +5735,10 @@
       <c r="R42" s="12"/>
       <c r="S42" s="12"/>
       <c r="U42" s="11" t="str">
-        <v>LocalCurrencyDelta1PDH.USD-IRFuture-ED-1</v>
+        <v>LocalCurrencyDelta1PDH.USD-Deposit-3W</v>
       </c>
       <c r="V42" s="16">
-        <v>1541.5374137767999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:22">
@@ -5753,7 +5761,7 @@
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
       <c r="U43" s="11" t="str">
-        <v>LocalCurrencyDelta1PDH.USD-IRFuture-ED-2</v>
+        <v>LocalCurrencyDelta1PDH.USD-Deposit-1M</v>
       </c>
       <c r="V43" s="16">
         <v>0</v>
@@ -5779,7 +5787,7 @@
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
       <c r="U44" s="11" t="str">
-        <v>LocalCurrencyDelta1PDH.USD-IRFuture-ED-3</v>
+        <v>LocalCurrencyDelta1PDH.USD-Deposit-2M</v>
       </c>
       <c r="V44" s="16">
         <v>0</v>
@@ -5805,7 +5813,7 @@
       <c r="R45" s="12"/>
       <c r="S45" s="12"/>
       <c r="U45" s="11" t="str">
-        <v>LocalCurrencyDelta1PDH.USD-IRFuture-ED-4</v>
+        <v>LocalCurrencyDelta1PDH.USD-Deposit-3M</v>
       </c>
       <c r="V45" s="16">
         <v>0</v>
@@ -5813,23 +5821,23 @@
     </row>
     <row r="46" spans="2:22">
       <c r="U46" s="11" t="str">
-        <v>LocalCurrencyDelta1PDH.USD-IRFuture-ED-5</v>
+        <v>LocalCurrencyDelta1PDH.USD-IRFuture-ED-1</v>
       </c>
       <c r="V46" s="16">
-        <v>0</v>
+        <v>2402.0242471895999</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="U47" s="11" t="str">
-        <v>LocalCurrencyDelta1PDH.USD-IRFuture-ED-6</v>
+        <v>LocalCurrencyDelta1PDH.USD-IRFuture-ED-2</v>
       </c>
       <c r="V47" s="16">
-        <v>0</v>
+        <v>467.9199555536</v>
       </c>
     </row>
     <row r="48" spans="2:22">
       <c r="U48" s="11" t="str">
-        <v>LocalCurrencyDelta1PDH.USD-IRFuture-ED-7</v>
+        <v>LocalCurrencyDelta1PDH.USD-IRFuture-ED-3</v>
       </c>
       <c r="V48" s="16">
         <v>0</v>
@@ -5837,7 +5845,7 @@
     </row>
     <row r="49" spans="21:22">
       <c r="U49" s="11" t="str">
-        <v>LocalCurrencyDelta1PDH.USD-IRFuture-ED-8</v>
+        <v>LocalCurrencyDelta1PDH.USD-IRFuture-ED-4</v>
       </c>
       <c r="V49" s="16">
         <v>0</v>
@@ -5845,7 +5853,7 @@
     </row>
     <row r="50" spans="21:22">
       <c r="U50" s="11" t="str">
-        <v>LocalCurrencyDelta1PDH.USD-IRFuture-ED-9</v>
+        <v>LocalCurrencyDelta1PDH.USD-IRFuture-ED-5</v>
       </c>
       <c r="V50" s="16">
         <v>0</v>
@@ -5853,7 +5861,7 @@
     </row>
     <row r="51" spans="21:22">
       <c r="U51" s="11" t="str">
-        <v>LocalCurrencyDelta1PDH.USD-IRFuture-ED-10</v>
+        <v>LocalCurrencyDelta1PDH.USD-IRFuture-ED-6</v>
       </c>
       <c r="V51" s="16">
         <v>0</v>
@@ -5861,7 +5869,7 @@
     </row>
     <row r="52" spans="21:22">
       <c r="U52" s="11" t="str">
-        <v>LocalCurrencyDelta1PDH.USD-IRFuture-ED-11</v>
+        <v>LocalCurrencyDelta1PDH.USD-IRFuture-ED-7</v>
       </c>
       <c r="V52" s="16">
         <v>0</v>
@@ -5869,7 +5877,7 @@
     </row>
     <row r="53" spans="21:22">
       <c r="U53" s="11" t="str">
-        <v>LocalCurrencyDelta1PDH.USD-IRFuture-ED-12</v>
+        <v>LocalCurrencyDelta1PDH.USD-IRFuture-ED-8</v>
       </c>
       <c r="V53" s="16">
         <v>0</v>
@@ -5877,7 +5885,7 @@
     </row>
     <row r="54" spans="21:22">
       <c r="U54" s="11" t="str">
-        <v>LocalCurrencyDelta1PDH.USD-IRSwap-4Y</v>
+        <v>LocalCurrencyDelta1PDH.USD-IRSwap-3Y</v>
       </c>
       <c r="V54" s="16">
         <v>0</v>
@@ -5885,7 +5893,7 @@
     </row>
     <row r="55" spans="21:22">
       <c r="U55" s="11" t="str">
-        <v>LocalCurrencyDelta1PDH.USD-IRSwap-5Y</v>
+        <v>LocalCurrencyDelta1PDH.USD-IRSwap-4Y</v>
       </c>
       <c r="V55" s="16">
         <v>0</v>
@@ -5893,7 +5901,7 @@
     </row>
     <row r="56" spans="21:22">
       <c r="U56" s="11" t="str">
-        <v>LocalCurrencyDelta1PDH.USD-IRSwap-6Y</v>
+        <v>LocalCurrencyDelta1PDH.USD-IRSwap-5Y</v>
       </c>
       <c r="V56" s="16">
         <v>0</v>
@@ -5909,7 +5917,7 @@
     </row>
     <row r="58" spans="21:22">
       <c r="U58" s="11" t="str">
-        <v>LocalCurrencyDelta1PDH.USD-IRSwap-8Y</v>
+        <v>LocalCurrencyDelta1PDH.USD-IRSwap-10Y</v>
       </c>
       <c r="V58" s="16">
         <v>0</v>
@@ -5917,7 +5925,7 @@
     </row>
     <row r="59" spans="21:22">
       <c r="U59" s="11" t="str">
-        <v>LocalCurrencyDelta1PDH.USD-IRSwap-9Y</v>
+        <v>LocalCurrencyDelta1PDH.USD-IRSwap-12Y</v>
       </c>
       <c r="V59" s="16">
         <v>0</v>
@@ -5925,7 +5933,7 @@
     </row>
     <row r="60" spans="21:22">
       <c r="U60" s="11" t="str">
-        <v>LocalCurrencyDelta1PDH.USD-IRSwap-10Y</v>
+        <v>LocalCurrencyDelta1PDH.USD-IRSwap-15Y</v>
       </c>
       <c r="V60" s="16">
         <v>0</v>
@@ -5933,7 +5941,7 @@
     </row>
     <row r="61" spans="21:22">
       <c r="U61" s="11" t="str">
-        <v>LocalCurrencyDelta1PDH.USD-IRSwap-12Y</v>
+        <v>LocalCurrencyDelta1PDH.USD-IRSwap-20Y</v>
       </c>
       <c r="V61" s="16">
         <v>0</v>
@@ -5941,7 +5949,7 @@
     </row>
     <row r="62" spans="21:22">
       <c r="U62" s="11" t="str">
-        <v>LocalCurrencyDelta1PDH.USD-IRSwap-15Y</v>
+        <v>LocalCurrencyDelta1PDH.USD-IRSwap-25Y</v>
       </c>
       <c r="V62" s="16">
         <v>0</v>
@@ -5949,7 +5957,7 @@
     </row>
     <row r="63" spans="21:22">
       <c r="U63" s="11" t="str">
-        <v>LocalCurrencyDelta1PDH.USD-IRSwap-20Y</v>
+        <v>LocalCurrencyDelta1PDH.USD-IRSwap-30Y</v>
       </c>
       <c r="V63" s="16">
         <v>0</v>
@@ -5960,7 +5968,7 @@
         <v>RiskNPV.AUD</v>
       </c>
       <c r="V64" s="16">
-        <v>4.2153087606803597E+17</v>
+        <v>-137446081.0068514</v>
       </c>
     </row>
     <row r="65" spans="21:22">
@@ -5968,7 +5976,7 @@
         <v>RiskNPV.USD</v>
       </c>
       <c r="V65" s="16">
-        <v>174358033.12321925</v>
+        <v>175775523.96674195</v>
       </c>
     </row>
     <row r="66" spans="21:22">
@@ -5976,7 +5984,7 @@
         <v>LocalCurrencyNPV.AUD</v>
       </c>
       <c r="V66" s="16">
-        <v>-98175358.695394993</v>
+        <v>-98175772.147751004</v>
       </c>
     </row>
     <row r="67" spans="21:22">
@@ -5984,7 +5992,7 @@
         <v>LocalCurrencyNPV.USD</v>
       </c>
       <c r="V67" s="16">
-        <v>87179016.561609641</v>
+        <v>87887761.983370975</v>
       </c>
     </row>
     <row r="68" spans="21:22">
@@ -6769,8 +6777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6827,19 +6835,19 @@
       <c r="E3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="11" t="e">
+      <c r="F3" s="11" t="str">
         <f>_xll.HLV5r3.Financial.Cache.ValueTradeFromMarket(E3,B3,$J$2:$J$4,D3,$K$20,C3)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G3" s="11" t="e">
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.fxSwap.t0017.QR_LIVE</v>
+      </c>
+      <c r="G3" s="11" t="str">
         <f t="array" ref="G3:I4">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(F3))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H3" s="11" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I3" s="11" t="e">
-        <v>#VALUE!</v>
+        <v>NPV</v>
+      </c>
+      <c r="H3" s="11" t="str">
+        <v>ExpectedValue</v>
+      </c>
+      <c r="I3" s="11" t="str">
+        <v>Delta1</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>20</v>
@@ -6851,14 +6859,14 @@
       <c r="D4" s="16"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
-      <c r="G4" s="14" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H4" s="14" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I4" s="14" t="e">
-        <v>#VALUE!</v>
+      <c r="G4" s="14">
+        <v>2699.620678192</v>
+      </c>
+      <c r="H4" s="14">
+        <v>10000</v>
+      </c>
+      <c r="I4" s="14">
+        <v>-9.4130750292539798</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>21</v>
@@ -6877,19 +6885,19 @@
       <c r="E5" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="11" t="e">
+      <c r="F5" s="11" t="str">
         <f>_xll.HLV5r3.Financial.Cache.ValueTradeFromMarket(E5,B5,$J$2:$J$4,D5,$K$20,C5)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G5" s="11" t="e">
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.fxSwap.t0018.QR_LIVE</v>
+      </c>
+      <c r="G5" s="11" t="str">
         <f t="array" ref="G5:I6">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(F5))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H5" s="11" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I5" s="11" t="e">
-        <v>#VALUE!</v>
+        <v>NPV</v>
+      </c>
+      <c r="H5" s="11" t="str">
+        <v>ExpectedValue</v>
+      </c>
+      <c r="I5" s="11" t="str">
+        <v>Delta1</v>
       </c>
     </row>
     <row r="6" spans="2:10">
@@ -6898,14 +6906,14 @@
       <c r="D6" s="16"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
-      <c r="G6" s="14" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H6" s="14" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I6" s="14" t="e">
-        <v>#VALUE!</v>
+      <c r="G6" s="14">
+        <v>15685.1967757241</v>
+      </c>
+      <c r="H6" s="14">
+        <v>30000</v>
+      </c>
+      <c r="I6" s="14">
+        <v>-17.795907904625583</v>
       </c>
     </row>
     <row r="7" spans="2:10">
@@ -6943,13 +6951,13 @@
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14">
-        <v>75990514999520.734</v>
+        <v>48935.137125990237</v>
       </c>
       <c r="H8" s="14">
         <v>70000</v>
       </c>
       <c r="I8" s="14">
-        <v>-145667953208.88089</v>
+        <v>-23.281073162515664</v>
       </c>
     </row>
     <row r="9" spans="2:10">
